--- a/NEW HR/New folder/DE CASTRO, ROSS EIZALHYNNE A..xlsx
+++ b/NEW HR/New folder/DE CASTRO, ROSS EIZALHYNNE A..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A356C53B-31D6-41F5-8A61-93A0D6982380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="BALANCE_1">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>PERIOD</t>
   </si>
@@ -178,11 +177,20 @@
   <si>
     <t>TOTAL LEAVE BALANCE</t>
   </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/15,16/2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -413,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -590,6 +598,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,7 +1050,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1093,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1146,7 +1157,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1217,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1283,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1346,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1444,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1492,7 +1503,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,7 +1568,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1611,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1675,7 +1686,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1872,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1938,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1996,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,7 +2062,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2118,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2193,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2236,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2302,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2358,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2456,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2519,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,25 +2585,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K76" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K76" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2604,13 +2615,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2619,14 +2630,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2930,7 +2941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2940,7 +2951,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2948,34 +2959,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4788" topLeftCell="A9" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2996,7 +3007,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3014,7 +3025,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3034,7 +3045,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="51"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3042,7 +3053,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3055,7 +3066,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -3072,7 +3083,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3107,7 +3118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3116,7 +3127,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>8.75</v>
+        <v>10.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3126,12 +3137,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>8.75</v>
+        <v>11.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3153,7 +3164,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44743</v>
       </c>
@@ -3173,7 +3184,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44774</v>
       </c>
@@ -3193,7 +3204,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44805</v>
       </c>
@@ -3213,7 +3224,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>44835</v>
       </c>
@@ -3233,7 +3244,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44866</v>
       </c>
@@ -3253,7 +3264,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>44896</v>
       </c>
@@ -3273,7 +3284,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -3291,7 +3302,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44927</v>
       </c>
@@ -3311,59 +3322,77 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>44958</v>
+      </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D19" s="39"/>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G19" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>44986</v>
+      </c>
       <c r="B20" s="20"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D20" s="39"/>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>45017</v>
+      </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="39">
+        <v>2</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -3373,11 +3402,15 @@
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
@@ -3386,12 +3419,16 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="39">
+        <v>1</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="61">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -3407,7 +3444,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -3423,7 +3460,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -3439,7 +3476,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3455,7 +3492,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3471,7 +3508,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3487,7 +3524,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3503,7 +3540,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3519,7 +3556,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3535,7 +3572,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3551,7 +3588,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3567,7 +3604,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3583,7 +3620,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3599,7 +3636,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3615,7 +3652,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3631,7 +3668,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3647,7 +3684,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3663,7 +3700,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3679,7 +3716,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3695,7 +3732,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3711,7 +3748,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3727,7 +3764,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3743,7 +3780,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3759,7 +3796,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3775,7 +3812,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3791,7 +3828,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3807,7 +3844,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3823,7 +3860,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3839,7 +3876,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3855,7 +3892,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3871,7 +3908,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3887,7 +3924,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3903,7 +3940,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3919,7 +3956,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3935,7 +3972,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3951,7 +3988,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3967,7 +4004,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3983,7 +4020,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3999,7 +4036,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4015,7 +4052,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4031,7 +4068,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4047,7 +4084,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4063,7 +4100,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4079,7 +4116,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4095,7 +4132,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4111,7 +4148,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4127,7 +4164,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4143,7 +4180,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4159,7 +4196,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4175,7 +4212,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4191,7 +4228,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4207,7 +4244,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4223,7 +4260,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="15"/>
       <c r="C76" s="42"/>
@@ -4254,10 +4291,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4280,7 +4317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -4288,21 +4325,21 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -4315,7 +4352,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4344,7 +4381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -4364,17 +4401,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -4398,10 +4435,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -4429,7 +4466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4455,7 +4492,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4481,7 +4518,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4507,7 +4544,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4533,7 +4570,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4559,7 +4596,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4585,7 +4622,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4611,7 +4648,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4631,7 +4668,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4651,7 +4688,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4671,7 +4708,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4692,7 +4729,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4713,7 +4750,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4734,7 +4771,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4755,7 +4792,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4776,7 +4813,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4797,7 +4834,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4818,7 +4855,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4839,7 +4876,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4860,7 +4897,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4881,7 +4918,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4902,7 +4939,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4923,7 +4960,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4944,7 +4981,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4965,7 +5002,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4986,7 +5023,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5007,7 +5044,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5028,7 +5065,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5049,7 +5086,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5070,7 +5107,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5091,7 +5128,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5100,7 +5137,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5109,7 +5146,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5118,7 +5155,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5127,7 +5164,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5136,7 +5173,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5145,7 +5182,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5154,7 +5191,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5163,7 +5200,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5172,7 +5209,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5181,7 +5218,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5190,7 +5227,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5199,7 +5236,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5208,7 +5245,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5217,7 +5254,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5226,7 +5263,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5235,7 +5272,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5244,7 +5281,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5253,7 +5290,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5262,7 +5299,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5271,7 +5308,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5280,7 +5317,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5289,7 +5326,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5298,7 +5335,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5307,7 +5344,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5316,7 +5353,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5325,7 +5362,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5334,7 +5371,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5343,7 +5380,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5352,7 +5389,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/New folder/DE CASTRO, ROSS EIZALHYNNE A..xlsx
+++ b/NEW HR/New folder/DE CASTRO, ROSS EIZALHYNNE A..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>PERIOD</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>06/13,20/2023</t>
   </si>
 </sst>
 </file>
@@ -563,44 +566,44 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1050,7 +1053,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1093,7 +1096,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1157,7 +1160,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1217,7 +1220,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,7 +1286,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1349,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1447,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,7 +1506,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1571,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1614,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1686,7 +1689,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1875,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1941,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1999,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2065,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2121,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2196,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2239,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2305,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2361,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2459,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,7 +2522,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2966,9 +2969,9 @@
   <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A9" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A12" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2990,60 +2993,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3069,18 +3072,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3127,7 +3130,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3424,15 +3427,21 @@
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="61">
+      <c r="K23" s="49">
         <v>45058</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="39"/>
+      <c r="D24" s="39">
+        <v>2</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13" t="str">
@@ -3442,7 +3451,9 @@
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
@@ -4278,17 +4289,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4340,17 +4351,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -4428,17 +4439,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/NEW HR/New folder/DE CASTRO, ROSS EIZALHYNNE A..xlsx
+++ b/NEW HR/New folder/DE CASTRO, ROSS EIZALHYNNE A..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D0C0C7-96C1-4FBC-89A6-B26B350B315F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <definedName name="BALANCE_1">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>PERIOD</t>
   </si>
@@ -172,9 +173,6 @@
     <t>CASUAL</t>
   </si>
   <si>
-    <t>DE CASTRO, ROSS EIZALHYNNE A.</t>
-  </si>
-  <si>
     <t>TOTAL LEAVE BALANCE</t>
   </si>
   <si>
@@ -189,18 +187,21 @@
   <si>
     <t>06/13,20/2023</t>
   </si>
+  <si>
+    <t>DE CASTRO, ROSS EIZALHYNNE ANGCAYA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +235,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -424,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,6 +581,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -584,26 +602,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,7 +1065,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1096,7 +1108,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,7 +1172,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,7 +1232,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1298,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1349,7 +1361,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1459,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,7 +1518,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1583,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1626,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1701,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1887,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1953,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,7 +2011,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2077,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2133,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2208,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2251,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2317,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2373,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2471,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,7 +2534,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2583,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2588,25 +2600,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K76" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K77" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2618,13 +2630,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2633,14 +2645,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2944,7 +2956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2954,7 +2966,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2962,55 +2974,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K76"/>
+  <dimension ref="A2:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A12" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <pane ySplit="4056" topLeftCell="A19"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="50"/>
+      <c r="B2" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="62"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3019,16 +3031,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3039,16 +3051,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3056,7 +3068,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3069,24 +3081,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3121,7 +3133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3130,7 +3142,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3140,12 +3152,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3167,7 +3179,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44743</v>
       </c>
@@ -3187,7 +3199,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>44774</v>
       </c>
@@ -3207,7 +3219,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>44805</v>
       </c>
@@ -3227,7 +3239,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>44835</v>
       </c>
@@ -3247,7 +3259,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>44866</v>
       </c>
@@ -3267,7 +3279,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>44896</v>
       </c>
@@ -3287,7 +3299,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -3305,7 +3317,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44927</v>
       </c>
@@ -3325,7 +3337,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>44958</v>
       </c>
@@ -3345,7 +3357,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44986</v>
       </c>
@@ -3365,7 +3377,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>45017</v>
       </c>
@@ -3385,81 +3397,87 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>45047</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="39">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D22" s="39"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H22" s="39"/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H22" s="39">
+        <v>1</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="49">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="39">
+        <v>2</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="39">
-        <v>1</v>
-      </c>
+      <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="49">
-        <v>45058</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
-        <v>45078</v>
-      </c>
+      <c r="K23" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="39">
-        <v>2</v>
-      </c>
+      <c r="D24" s="39"/>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>1</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="K24" s="49">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="39"/>
+      <c r="D25" s="39">
+        <v>2</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13" t="str">
@@ -3469,9 +3487,11 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -3487,7 +3507,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3503,7 +3523,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3519,7 +3539,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3535,7 +3555,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3551,7 +3571,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3567,7 +3587,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3583,7 +3603,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3599,7 +3619,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3615,7 +3635,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3631,7 +3651,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3647,7 +3667,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3663,7 +3683,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3679,7 +3699,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3695,7 +3715,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3711,7 +3731,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3727,7 +3747,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3743,7 +3763,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3759,7 +3779,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3775,7 +3795,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3791,7 +3811,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3807,7 +3827,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3823,7 +3843,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3839,7 +3859,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3855,7 +3875,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3871,7 +3891,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3887,7 +3907,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3903,7 +3923,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3919,7 +3939,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3935,7 +3955,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3951,7 +3971,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3967,7 +3987,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3983,7 +4003,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3999,7 +4019,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4015,7 +4035,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4031,7 +4051,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4047,7 +4067,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4063,7 +4083,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4079,7 +4099,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4095,7 +4115,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4111,7 +4131,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4127,7 +4147,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4143,7 +4163,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4159,7 +4179,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4175,7 +4195,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4191,7 +4211,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4207,7 +4227,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4223,7 +4243,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4239,7 +4259,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4255,7 +4275,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4271,41 +4291,57 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="43"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="40"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="39"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="43"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="39"/>
       <c r="I76" s="9"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="15"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="20"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="41"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="43"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4328,7 +4364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -4336,21 +4372,21 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -4363,7 +4399,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4392,7 +4428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -4412,19 +4448,19 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
@@ -4446,10 +4482,10 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -4477,7 +4513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4503,7 +4539,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4529,7 +4565,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4555,7 +4591,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4581,7 +4617,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4607,7 +4643,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4633,7 +4669,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4659,7 +4695,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4679,7 +4715,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4699,7 +4735,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4719,7 +4755,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4740,7 +4776,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4761,7 +4797,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4782,7 +4818,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4803,7 +4839,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4824,7 +4860,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4845,7 +4881,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4866,7 +4902,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4887,7 +4923,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4908,7 +4944,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4929,7 +4965,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4950,7 +4986,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4971,7 +5007,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4992,7 +5028,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5013,7 +5049,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5034,7 +5070,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5055,7 +5091,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5076,7 +5112,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5097,7 +5133,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5118,7 +5154,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5139,7 +5175,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5148,7 +5184,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5157,7 +5193,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5166,7 +5202,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5175,7 +5211,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5184,7 +5220,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5193,7 +5229,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5202,7 +5238,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5211,7 +5247,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5220,7 +5256,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5229,7 +5265,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5238,7 +5274,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5247,7 +5283,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5256,7 +5292,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5265,7 +5301,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5274,7 +5310,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5283,7 +5319,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5292,7 +5328,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5301,7 +5337,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5310,7 +5346,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5319,7 +5355,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5328,7 +5364,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5337,7 +5373,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5346,7 +5382,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5355,7 +5391,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5364,7 +5400,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5373,7 +5409,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5382,7 +5418,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5391,7 +5427,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5400,7 +5436,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/New folder/DE CASTRO, ROSS EIZALHYNNE A..xlsx
+++ b/NEW HR/New folder/DE CASTRO, ROSS EIZALHYNNE A..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D0C0C7-96C1-4FBC-89A6-B26B350B315F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7FE659-1558-4130-B641-70BC1CD46035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>DE CASTRO, ROSS EIZALHYNNE ANGCAYA</t>
+  </si>
+  <si>
+    <t>6/6,7/2023</t>
   </si>
 </sst>
 </file>
@@ -578,44 +581,44 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2981,9 +2984,9 @@
   <dimension ref="A2:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A19"/>
+      <pane ySplit="4056" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3005,60 +3008,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3084,18 +3087,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3142,7 +3145,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3152,7 +3155,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3474,15 +3477,17 @@
       <c r="B25" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="39">
         <v>2</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
@@ -3493,9 +3498,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="39"/>
+      <c r="D26" s="39">
+        <v>2</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
       <c r="G26" s="13" t="str">
@@ -3505,7 +3514,9 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
@@ -4325,17 +4336,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -4387,17 +4398,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -4475,17 +4486,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/NEW HR/New folder/DE CASTRO, ROSS EIZALHYNNE A..xlsx
+++ b/NEW HR/New folder/DE CASTRO, ROSS EIZALHYNNE A..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7FE659-1558-4130-B641-70BC1CD46035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="BALANCE_1">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -197,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1068,7 +1067,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1111,7 +1110,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,7 +1174,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1234,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1301,7 +1300,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1363,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1461,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,7 +1520,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,7 +1585,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,7 +1628,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1704,7 +1703,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1889,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +1955,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2013,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2080,7 +2079,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2135,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2210,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2253,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2319,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2375,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,7 +2473,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2536,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2585,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2603,25 +2602,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K77" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K77" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2633,13 +2632,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2648,14 +2647,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2959,7 +2958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2969,7 +2968,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2977,34 +2976,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3025,7 +3024,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3043,7 +3042,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3063,7 +3062,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3071,7 +3070,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3084,7 +3083,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="60" t="s">
@@ -3101,7 +3100,7 @@
       <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3155,12 +3154,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3182,7 +3181,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44743</v>
       </c>
@@ -3202,7 +3201,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44774</v>
       </c>
@@ -3222,7 +3221,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44805</v>
       </c>
@@ -3242,7 +3241,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>44835</v>
       </c>
@@ -3262,7 +3261,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44866</v>
       </c>
@@ -3282,7 +3281,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>44896</v>
       </c>
@@ -3302,7 +3301,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -3320,7 +3319,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44927</v>
       </c>
@@ -3340,7 +3339,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44958</v>
       </c>
@@ -3360,7 +3359,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44986</v>
       </c>
@@ -3380,7 +3379,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>45017</v>
       </c>
@@ -3400,7 +3399,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>45047</v>
       </c>
@@ -3426,7 +3425,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>46</v>
@@ -3448,7 +3447,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>48</v>
@@ -3470,7 +3469,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>45078</v>
       </c>
@@ -3496,7 +3495,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>46</v>
@@ -3518,9 +3517,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="20"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
@@ -3529,14 +3532,20 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="39">
+        <v>1</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="49">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
@@ -3545,12 +3554,16 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="39">
+        <v>1</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="49">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3566,7 +3579,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3582,7 +3595,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3598,7 +3611,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3614,7 +3627,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3630,7 +3643,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3646,7 +3659,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3662,7 +3675,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3678,7 +3691,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3694,7 +3707,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3710,7 +3723,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3726,7 +3739,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3742,7 +3755,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3758,7 +3771,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3774,7 +3787,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3790,7 +3803,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3806,7 +3819,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3822,7 +3835,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3838,7 +3851,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3854,7 +3867,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3870,7 +3883,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3886,7 +3899,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3902,7 +3915,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3918,7 +3931,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3934,7 +3947,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3950,7 +3963,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3966,7 +3979,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3982,7 +3995,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -3998,7 +4011,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4014,7 +4027,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4030,7 +4043,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4046,7 +4059,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4062,7 +4075,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4078,7 +4091,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4094,7 +4107,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4110,7 +4123,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4126,7 +4139,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4142,7 +4155,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4158,7 +4171,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4174,7 +4187,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4190,7 +4203,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4206,7 +4219,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4222,7 +4235,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4238,7 +4251,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4254,7 +4267,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4270,7 +4283,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4286,7 +4299,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4302,7 +4315,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4318,7 +4331,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="15"/>
       <c r="C77" s="42"/>
@@ -4349,10 +4362,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4375,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -4383,21 +4396,21 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -4410,7 +4423,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4439,7 +4452,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -4459,17 +4472,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
@@ -4493,10 +4506,10 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -4524,7 +4537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4550,7 +4563,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4576,7 +4589,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4602,7 +4615,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4628,7 +4641,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4654,7 +4667,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4680,7 +4693,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4706,7 +4719,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4726,7 +4739,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4746,7 +4759,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4766,7 +4779,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4787,7 +4800,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4808,7 +4821,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4829,7 +4842,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4850,7 +4863,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4871,7 +4884,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4892,7 +4905,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4913,7 +4926,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4934,7 +4947,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4955,7 +4968,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4976,7 +4989,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4997,7 +5010,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5018,7 +5031,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5039,7 +5052,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5060,7 +5073,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5081,7 +5094,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5102,7 +5115,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5123,7 +5136,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5144,7 +5157,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5165,7 +5178,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5186,7 +5199,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5195,7 +5208,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5204,7 +5217,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5213,7 +5226,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5222,7 +5235,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5231,7 +5244,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5240,7 +5253,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5249,7 +5262,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5258,7 +5271,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5267,7 +5280,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5276,7 +5289,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5285,7 +5298,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5294,7 +5307,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5303,7 +5316,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5312,7 +5325,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5321,7 +5334,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5330,7 +5343,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5339,7 +5352,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5348,7 +5361,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5357,7 +5370,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5366,7 +5379,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5375,7 +5388,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5384,7 +5397,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5393,7 +5406,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5402,7 +5415,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5411,7 +5424,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5420,7 +5433,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5429,7 +5442,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5438,7 +5451,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5447,7 +5460,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/New folder/DE CASTRO, ROSS EIZALHYNNE A..xlsx
+++ b/NEW HR/New folder/DE CASTRO, ROSS EIZALHYNNE A..xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2983,9 +2983,9 @@
   <dimension ref="A2:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3144,7 +3144,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3154,7 +3154,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3524,13 +3524,15 @@
       <c r="B27" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H27" s="39">
         <v>1</v>
@@ -3564,15 +3566,19 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="40">
+        <v>45139</v>
+      </c>
       <c r="B29" s="20"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
@@ -3580,31 +3586,45 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="13"/>
+      <c r="A30" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H30" s="39"/>
+      <c r="G30" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H30" s="39">
+        <v>1</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="49">
+        <v>45191</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="40">
+        <v>45230</v>
+      </c>
       <c r="B31" s="20"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
@@ -4509,7 +4529,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
